--- a/src/assets/pregunta.xlsx
+++ b/src/assets/pregunta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9D0EC-C824-44C2-8BBB-BB32288663CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46920218-9443-4E18-A3DB-7A2D97AD89DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>nombre</t>
   </si>
@@ -74,27 +74,12 @@
     <t>pregunta</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
     <t>CHECKBOX</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -108,13 +93,91 @@
   </si>
   <si>
     <t>SeccionPruebaDesc</t>
+  </si>
+  <si>
+    <t>Dirías que tu actual capacidad de ahorro es de:</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Plazo Fijo</t>
+  </si>
+  <si>
+    <t>¿En cuáles de éstos instrumentos has invertido alguna vez?</t>
+  </si>
+  <si>
+    <t>Fondos Comunes de Inversion (De renta fija)</t>
+  </si>
+  <si>
+    <t>Bonos</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>Opciones</t>
+  </si>
+  <si>
+    <t>Futuros</t>
+  </si>
+  <si>
+    <t>Menos de 3 años</t>
+  </si>
+  <si>
+    <t>¿Cuál es el plazo máximo que estarías dispuesto a mantener tus inversiones?</t>
+  </si>
+  <si>
+    <t>Entre 3 y 5 años</t>
+  </si>
+  <si>
+    <t>Entre 6 y 10 años</t>
+  </si>
+  <si>
+    <t>Mas de 11 años</t>
+  </si>
+  <si>
+    <t>Más de 50</t>
+  </si>
+  <si>
+    <t>¿Cuántos años tenés?</t>
+  </si>
+  <si>
+    <t>41 a 50</t>
+  </si>
+  <si>
+    <t>30 a 40</t>
+  </si>
+  <si>
+    <t>Menos de 30</t>
+  </si>
+  <si>
+    <t>Cubrir tu capital de la inflación y/o devaluación buscando el menor riesgo posible.</t>
+  </si>
+  <si>
+    <t>Al momento de realizar una inversión, buscas:</t>
+  </si>
+  <si>
+    <t>Obtener un rendimiento superior a la inflación y/o devaluación aceptando arriesgar tu capital.</t>
+  </si>
+  <si>
+    <t>Lograr un rendimiento considerablemente superior a la inflación y/o devaluación aceptando posibles pérdidas de capital</t>
+  </si>
+  <si>
+    <t>Menos de 2.000 Dólares al año.</t>
+  </si>
+  <si>
+    <t>Entre 2.000 Dólares y 6.000 Dólares al año.</t>
+  </si>
+  <si>
+    <t>Más de 6.000 Dólares al año.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +198,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,9 +237,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -554,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -606,19 +695,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,15 +721,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -660,83 +752,409 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
